--- a/testingLog.xlsx
+++ b/testingLog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bradl\Desktop\School\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bradl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088FF169-C798-4C3E-A3E4-C5B950D16334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DB6B11-086C-4E26-80AB-31994DA0743E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{A4740EA8-4B8B-4BE0-B10F-2A8FE17358D6}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{A4740EA8-4B8B-4BE0-B10F-2A8FE17358D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>What is being tested</t>
   </si>
@@ -58,6 +58,21 @@
   </si>
   <si>
     <t>When the ball hits two bircks it breakes them but continues going forward</t>
+  </si>
+  <si>
+    <t>Ball hitting corner of bricks</t>
+  </si>
+  <si>
+    <t>ball going past corners of bricks breaking them</t>
+  </si>
+  <si>
+    <t>When ball hits corner it should break the brick and its x or y speed should change depending on what direction it is going. Ef if going to bottome right should bounce to bottome left of canvas</t>
+  </si>
+  <si>
+    <t>Sometimes the ball skims the corner breaking the brick but continuign in a stratight line where it came from</t>
+  </si>
+  <si>
+    <t>The prolem was that it thought that it was coliding with other side of brick. To fix this added and if line to each collision checking what direcion the ball is going so it always bounces if it hits.</t>
   </si>
 </sst>
 </file>
@@ -461,7 +476,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -505,12 +520,22 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+    <row r="3" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -822,20 +847,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8391d51e-fdca-4f9f-9876-364cd39e1bf7">d04b5c27-fe88-4616-9273-7e8662d784a4</ReferenceId>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8391d51e-fdca-4f9f-9876-364cd39e1bf7">d04b5c27-fe88-4616-9273-7e8662d784a4</ReferenceId>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -857,14 +882,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E60CF964-E5B0-4456-94C9-62848076981E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49705E9F-1DBC-44ED-AB34-BAD166CF391C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="8391d51e-fdca-4f9f-9876-364cd39e1bf7"/>
@@ -878,4 +895,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E60CF964-E5B0-4456-94C9-62848076981E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/testingLog.xlsx
+++ b/testingLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bradl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DB6B11-086C-4E26-80AB-31994DA0743E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D925778C-3A5B-4C30-9F51-49B08B7CEDBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{A4740EA8-4B8B-4BE0-B10F-2A8FE17358D6}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{A4740EA8-4B8B-4BE0-B10F-2A8FE17358D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>What is being tested</t>
   </si>
@@ -73,6 +73,54 @@
   </si>
   <si>
     <t>The prolem was that it thought that it was coliding with other side of brick. To fix this added and if line to each collision checking what direcion the ball is going so it always bounces if it hits.</t>
+  </si>
+  <si>
+    <t>Changed code from ball..speed *= 1 which made it go in oppisite direction to if ( ball goinup) ball go down) so ball only bounces if traveing in that directins so doesn’t activate twice when hitting two bricks</t>
+  </si>
+  <si>
+    <t>Deleting Bricks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ball hitting bricks </t>
+  </si>
+  <si>
+    <t>if they are down to 1 strenght when brick hits they will get deleted out of the array</t>
+  </si>
+  <si>
+    <t>bricks are going invisable but are still I nthe array which is causeing lag later on in the game</t>
+  </si>
+  <si>
+    <t>Was onlny deleting brick xpos and so changed it to delete the entire elements variables making them undifined and then removeing that with bricks = bricks.filter(item =&gt; item !== undefined)</t>
+  </si>
+  <si>
+    <t>ball bouncing of wall</t>
+  </si>
+  <si>
+    <t>no imput just ball bouncing around</t>
+  </si>
+  <si>
+    <t>when ball bounces of walls the xspeed wil change to the opposite of what it is.</t>
+  </si>
+  <si>
+    <t>Every now and then the ball gets stuck inside the wall lagging back and forth</t>
+  </si>
+  <si>
+    <t>hitting the wall was based on if the right side of the ball was more than the canvas with the speed to would change by negative 1. Sometimes the ball would go past the will and go side to side changing by negative 1. To fix this is made it so if the xpos is more then the wall it changes back inside the wall and makes speed away from it</t>
+  </si>
+  <si>
+    <t>ball bouncing of paddle</t>
+  </si>
+  <si>
+    <t>ball hittting top or side of the paddle</t>
+  </si>
+  <si>
+    <t>When ball hits top of paddle it bounces back up and when it hits side changes xspeed but keeps same yspeed</t>
+  </si>
+  <si>
+    <t>Ball gets stuck in paddle</t>
+  </si>
+  <si>
+    <t>Similar to glitch 3 I add an if statement that if the ball is hitting top of paddle the yspeed changes to negatvie so ball goes up instead of oppisete which causes it to go back and forth.</t>
   </si>
 </sst>
 </file>
@@ -475,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0765B1-A414-4F58-91F9-E1D17DAE5A47}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -505,7 +553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -518,7 +566,9 @@
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -537,26 +587,56 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+    <row r="4" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -677,6 +757,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8391d51e-fdca-4f9f-9876-364cd39e1bf7">d04b5c27-fe88-4616-9273-7e8662d784a4</ReferenceId>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FC549031AE2EE645AE8308B2C81476B4" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39b98946aa211e90bd2a8ab94fc18abb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8391d51e-fdca-4f9f-9876-364cd39e1bf7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd9ade0a54ad0048e31f6e581a50e589" ns2:_="">
     <xsd:import namespace="8391d51e-fdca-4f9f-9876-364cd39e1bf7"/>
@@ -846,14 +934,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8391d51e-fdca-4f9f-9876-364cd39e1bf7">d04b5c27-fe88-4616-9273-7e8662d784a4</ReferenceId>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -864,6 +944,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49705E9F-1DBC-44ED-AB34-BAD166CF391C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="8391d51e-fdca-4f9f-9876-364cd39e1bf7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8197D9D4-AFA3-4598-A8A4-03B5846ED198}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -881,22 +977,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49705E9F-1DBC-44ED-AB34-BAD166CF391C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="8391d51e-fdca-4f9f-9876-364cd39e1bf7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E60CF964-E5B0-4456-94C9-62848076981E}">
   <ds:schemaRefs>

--- a/testingLog.xlsx
+++ b/testingLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bradl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D925778C-3A5B-4C30-9F51-49B08B7CEDBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067E87A2-8C00-4E5C-BC9A-FD33CFC79408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{A4740EA8-4B8B-4BE0-B10F-2A8FE17358D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4740EA8-4B8B-4BE0-B10F-2A8FE17358D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>What is being tested</t>
   </si>
@@ -121,6 +121,36 @@
   </si>
   <si>
     <t>Similar to glitch 3 I add an if statement that if the ball is hitting top of paddle the yspeed changes to negatvie so ball goes up instead of oppisete which causes it to go back and forth.</t>
+  </si>
+  <si>
+    <t>powerUps</t>
+  </si>
+  <si>
+    <t>hitting brick with ball and hitting powerup with paddle</t>
+  </si>
+  <si>
+    <t>When ball breaks brick a chance of powerup spawning should drop down and player gets the powerrup if they catch it with paddle</t>
+  </si>
+  <si>
+    <t>the power up spawns and drops down but when the player hits it sometimes runs twice changing powerupcount down by 2 causing glithces</t>
+  </si>
+  <si>
+    <t>the fucniton was getting called once but was happening twice for some reason because of for each loop fixed glithc by moving for loop for ball after the pUpCount is lowered</t>
+  </si>
+  <si>
+    <t>Paddle moveing</t>
+  </si>
+  <si>
+    <t>Mouse movement</t>
+  </si>
+  <si>
+    <t>THe paddle glitches out when mouse is of the canvas</t>
+  </si>
+  <si>
+    <t>this is because the mousex was undefined. I fixed this by making it only change paddle if mouse x is with in the canvas and go to the middle at the start of the game</t>
+  </si>
+  <si>
+    <t>The paddle should follow the mouse horizontaly</t>
   </si>
 </sst>
 </file>
@@ -523,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0765B1-A414-4F58-91F9-E1D17DAE5A47}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E7:E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -638,19 +668,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+    <row r="7" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -757,11 +807,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="8391d51e-fdca-4f9f-9876-364cd39e1bf7">d04b5c27-fe88-4616-9273-7e8662d784a4</ReferenceId>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -935,26 +986,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="8391d51e-fdca-4f9f-9876-364cd39e1bf7">d04b5c27-fe88-4616-9273-7e8662d784a4</ReferenceId>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49705E9F-1DBC-44ED-AB34-BAD166CF391C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E60CF964-E5B0-4456-94C9-62848076981E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="8391d51e-fdca-4f9f-9876-364cd39e1bf7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -978,9 +1020,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E60CF964-E5B0-4456-94C9-62848076981E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49705E9F-1DBC-44ED-AB34-BAD166CF391C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="8391d51e-fdca-4f9f-9876-364cd39e1bf7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/testingLog.xlsx
+++ b/testingLog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bradl\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bradl\Downloads\Game\BrickGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067E87A2-8C00-4E5C-BC9A-FD33CFC79408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E5AECAE-13ED-4340-AE89-C07572937FC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4740EA8-4B8B-4BE0-B10F-2A8FE17358D6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>What is being tested</t>
   </si>
@@ -54,12 +54,6 @@
     <t>When ball hits too bricks at once from any direction</t>
   </si>
   <si>
-    <t>Would bounce of both of and break or weaken them in oppisote direcion.</t>
-  </si>
-  <si>
-    <t>When the ball hits two bircks it breakes them but continues going forward</t>
-  </si>
-  <si>
     <t>Ball hitting corner of bricks</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t xml:space="preserve">ball hitting bricks </t>
   </si>
   <si>
-    <t>if they are down to 1 strenght when brick hits they will get deleted out of the array</t>
-  </si>
-  <si>
     <t>bricks are going invisable but are still I nthe array which is causeing lag later on in the game</t>
   </si>
   <si>
@@ -151,6 +142,30 @@
   </si>
   <si>
     <t>The paddle should follow the mouse horizontaly</t>
+  </si>
+  <si>
+    <t>Enter Name</t>
+  </si>
+  <si>
+    <t>Typing and enterbutton/clicking ok</t>
+  </si>
+  <si>
+    <t>Will keep asking name until user types a name that is more than 1 character and not numbers</t>
+  </si>
+  <si>
+    <t>Works when user clicks cancel or null or 1 character but not when they type numbers.</t>
+  </si>
+  <si>
+    <t>Added !isNan(name) to the while loop that I already made check if name is = to "null" or empty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if they are down to 1 strenght when brick hits they will get deleted out of the array </t>
+  </si>
+  <si>
+    <t>Would bounce of both of and break or weaken them in oppisote direcion. BrickStrenth -1;</t>
+  </si>
+  <si>
+    <t>When the ball hits two bircks it breakes them but continues going forward. Brick deletion and strenth changing works. Eg Brick strengh from 1 to 0</t>
   </si>
 </sst>
 </file>
@@ -554,7 +569,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -591,123 +606,133 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -807,15 +832,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FC549031AE2EE645AE8308B2C81476B4" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39b98946aa211e90bd2a8ab94fc18abb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8391d51e-fdca-4f9f-9876-364cd39e1bf7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd9ade0a54ad0048e31f6e581a50e589" ns2:_="">
     <xsd:import namespace="8391d51e-fdca-4f9f-9876-364cd39e1bf7"/>
@@ -985,6 +1001,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -994,14 +1019,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E60CF964-E5B0-4456-94C9-62848076981E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8197D9D4-AFA3-4598-A8A4-03B5846ED198}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1015,6 +1032,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E60CF964-E5B0-4456-94C9-62848076981E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
